--- a/QA/testcases/Provider/Prov_Patient_App_ViewIncomplete-Ok.xlsx
+++ b/QA/testcases/Provider/Prov_Patient_App_ViewIncomplete-Ok.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295">
   <si>
     <t>Step No</t>
   </si>
@@ -73,7 +76,7 @@
     <t>ByID</t>
   </si>
   <si>
-    <t>SSN_TEXT_FIELD</t>
+    <t>SSN_FIELD</t>
   </si>
   <si>
     <t>Enter SSN</t>
@@ -85,13 +88,16 @@
     <t>Click</t>
   </si>
   <si>
-    <t>NAME_DOB_LINK</t>
-  </si>
-  <si>
-    <t>Click on DOB link</t>
-  </si>
-  <si>
-    <t>DOB link clicked</t>
+    <t>ByXPath</t>
+  </si>
+  <si>
+    <t>SEARCH_BUTTON_LINK</t>
+  </si>
+  <si>
+    <t>Click Search</t>
+  </si>
+  <si>
+    <t>Search button clicked</t>
   </si>
   <si>
     <t>TypeDynamicAlpha</t>
@@ -100,7 +106,7 @@
     <t>FIRST_NAME_FIELD</t>
   </si>
   <si>
-    <t>_Fname</t>
+    <t>Fname</t>
   </si>
   <si>
     <t>Enter First name</t>
@@ -112,7 +118,7 @@
     <t>LAST_NAME_FIELD</t>
   </si>
   <si>
-    <t>_Lname</t>
+    <t>Lname</t>
   </si>
   <si>
     <t>Enter last name</t>
@@ -121,9 +127,6 @@
     <t>Last name entered</t>
   </si>
   <si>
-    <t>ByXPath</t>
-  </si>
-  <si>
     <t>DOB_FIELD</t>
   </si>
   <si>
@@ -136,19 +139,10 @@
     <t>DOB_DATEPICKER</t>
   </si>
   <si>
-    <t>SEARCH_BUTTON_LINK</t>
+    <t>SEARCH_PATIENT_NEW</t>
   </si>
   <si>
     <t>Click on search button</t>
-  </si>
-  <si>
-    <t>Search button clicked</t>
-  </si>
-  <si>
-    <t>SEARCH_PATIENT_NEW</t>
-  </si>
-  <si>
-    <t>Click Search</t>
   </si>
   <si>
     <t>Wait for page to load</t>
@@ -924,10 +918,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -970,10 +964,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -985,11 +980,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1000,8 +1030,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1017,7 +1078,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1032,51 +1093,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1086,29 +1102,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1135,7 +1129,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,157 +1291,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,13 +1309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,11 +1371,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1401,17 +1401,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1431,26 +1440,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1468,15 +1462,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1486,130 +1480,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1691,6 +1685,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1969,10 +1978,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -2053,253 +2062,243 @@
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6">
+      <c r="D9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9">
+        <v>4</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10">
-        <v>5</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="10">
-        <v>4</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="10"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>13</v>
@@ -2308,599 +2307,583 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="14">
-        <v>2</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10">
+        <v>5</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="9">
-        <v>2</v>
+        <v>43</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>56</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="14">
+        <v>2</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
       <c r="F20" s="9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="5">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="D21" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1000</v>
+      </c>
       <c r="F21" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="10">
-        <v>10001</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>65</v>
+        <v>20</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="E25" s="10">
-        <v>5</v>
+        <v>10001</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="5">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>72</v>
+        <v>11</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10">
+        <v>5</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>75</v>
+        <v>15</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>78</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="F32" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="F33" s="10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="6">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9">
-        <v>5</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="5">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E35" s="10"/>
       <c r="F35" s="10" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H35" s="15"/>
+        <v>91</v>
+      </c>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="6">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9">
+        <v>5</v>
+      </c>
       <c r="F36" s="9" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H36" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="5">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="10"/>
+        <v>92</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="F37" s="10" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H37" s="15"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E38" s="9"/>
       <c r="F38" s="9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" s="4" customFormat="1" spans="1:13">
+        <v>98</v>
+      </c>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="5">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>110</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E39" s="10"/>
       <c r="F39" s="10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-    </row>
-    <row r="40" s="4" customFormat="1" spans="1:13">
+        <v>101</v>
+      </c>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40" s="9">
-        <v>10001</v>
+        <v>20</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="H40" s="9"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
     </row>
     <row r="41" s="4" customFormat="1" spans="1:13">
       <c r="A41" s="5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>114</v>
+      <c r="D41" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="11"/>
@@ -2909,61 +2892,79 @@
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" s="4" customFormat="1" spans="1:13">
       <c r="A42" s="6">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+        <v>110</v>
+      </c>
+      <c r="E42" s="9">
+        <v>10001</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="H42" s="9"/>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+    </row>
+    <row r="43" s="4" customFormat="1" spans="1:13">
       <c r="A43" s="5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="10">
-        <v>9876543210</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+        <v>111</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="H43" s="10"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="6">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -2971,628 +2972,634 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E45" s="10">
+        <v>9876543210</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" s="5" customFormat="1" spans="1:8">
+    <row r="46" spans="1:8">
       <c r="A46" s="6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="9">
-        <v>4</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" s="6" customFormat="1" spans="1:8">
+    <row r="47" spans="1:8">
       <c r="A47" s="5">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>123</v>
+        <v>15</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="F47" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="H47" s="10"/>
     </row>
     <row r="48" s="5" customFormat="1" spans="1:8">
       <c r="A48" s="6">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>125</v>
+        <v>11</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="9">
+        <v>4</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H48" s="9"/>
     </row>
     <row r="49" s="6" customFormat="1" spans="1:8">
       <c r="A49" s="5">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
     <row r="50" s="5" customFormat="1" spans="1:8">
       <c r="A50" s="6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" s="5" customFormat="1" spans="1:8">
+    <row r="51" s="6" customFormat="1" spans="1:8">
       <c r="A51" s="5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>134</v>
+      <c r="D51" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" s="6" customFormat="1" spans="1:8">
+    <row r="52" s="5" customFormat="1" spans="1:8">
       <c r="A52" s="6">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>106</v>
+        <v>127</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="H52" s="9"/>
     </row>
     <row r="53" s="5" customFormat="1" spans="1:8">
       <c r="A53" s="5">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>110</v>
+      <c r="D53" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="H53" s="10"/>
     </row>
     <row r="54" s="6" customFormat="1" spans="1:8">
       <c r="A54" s="6">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E54" s="9">
-        <v>10001</v>
+        <v>135</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="H54" s="9"/>
     </row>
     <row r="55" s="5" customFormat="1" spans="1:8">
       <c r="A55" s="5">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E55" s="10">
-        <v>9789123456</v>
+        <v>137</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" s="5" customFormat="1" spans="1:8">
+    <row r="56" s="6" customFormat="1" spans="1:8">
       <c r="A56" s="6">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>149</v>
+        <v>139</v>
+      </c>
+      <c r="E56" s="9">
+        <v>10001</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" s="6" customFormat="1" spans="1:8">
+    <row r="57" s="5" customFormat="1" spans="1:8">
       <c r="A57" s="5">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E57" s="10"/>
+        <v>142</v>
+      </c>
+      <c r="E57" s="10">
+        <v>9789123456</v>
+      </c>
       <c r="F57" s="10" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="H57" s="10"/>
     </row>
     <row r="58" s="5" customFormat="1" spans="1:8">
       <c r="A58" s="6">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="9">
-        <v>4</v>
+        <v>65</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="H58" s="9"/>
     </row>
     <row r="59" s="6" customFormat="1" spans="1:8">
       <c r="A59" s="5">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>153</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E59" s="10"/>
       <c r="F59" s="10" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="H59" s="10"/>
     </row>
     <row r="60" s="5" customFormat="1" spans="1:8">
       <c r="A60" s="6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+      <c r="D60" s="11"/>
       <c r="E60" s="9">
+        <v>4</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" s="6" customFormat="1" spans="1:8">
+      <c r="A61" s="5">
+        <v>58</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" s="5" customFormat="1" spans="1:8">
+      <c r="A62" s="6">
+        <v>59</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9">
         <v>2</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-    </row>
-    <row r="61" s="5" customFormat="1" spans="1:8">
-      <c r="A61" s="5">
-        <v>60</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" s="6" customFormat="1" spans="1:8">
-      <c r="A62" s="6">
-        <v>61</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>162</v>
-      </c>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
       <c r="H62" s="9"/>
     </row>
     <row r="63" s="5" customFormat="1" spans="1:8">
       <c r="A63" s="5">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="H63" s="10"/>
     </row>
     <row r="64" s="6" customFormat="1" spans="1:8">
       <c r="A64" s="6">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>166</v>
+        <v>20</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="H64" s="9"/>
     </row>
     <row r="65" s="5" customFormat="1" spans="1:8">
       <c r="A65" s="5">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" s="5" customFormat="1" spans="1:8">
+    <row r="66" s="6" customFormat="1" spans="1:8">
       <c r="A66" s="6">
+        <v>63</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67" s="5" customFormat="1" spans="1:8">
+      <c r="A67" s="5">
+        <v>64</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66" s="9" t="s">
+      <c r="C67" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="E66" s="9">
-        <v>1235647899</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="H66" s="9"/>
-    </row>
-    <row r="67" s="6" customFormat="1" spans="1:8">
-      <c r="A67" s="5">
-        <v>66</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="D67" s="10" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+      <c r="F67" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="H67" s="10"/>
     </row>
     <row r="68" s="5" customFormat="1" spans="1:8">
       <c r="A68" s="6">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E68" s="9"/>
+        <v>169</v>
+      </c>
+      <c r="E68" s="9">
+        <v>1235647899</v>
+      </c>
       <c r="F68" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H68" s="9"/>
     </row>
     <row r="69" s="6" customFormat="1" spans="1:8">
       <c r="A69" s="5">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E69" s="10">
-        <v>97890456789</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>181</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
       <c r="H69" s="10"/>
     </row>
     <row r="70" s="5" customFormat="1" spans="1:8">
       <c r="A70" s="6">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" s="5" customFormat="1" spans="1:8">
+    <row r="71" s="6" customFormat="1" spans="1:8">
       <c r="A71" s="5">
-        <v>70</v>
-      </c>
-      <c r="B71" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="10">
+        <v>97890456789</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" s="5" customFormat="1" spans="1:8">
+      <c r="A72" s="6">
+        <v>69</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-    </row>
-    <row r="72" s="6" customFormat="1" spans="1:8">
-      <c r="A72" s="6">
-        <v>71</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="10">
-        <v>4</v>
-      </c>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
+      <c r="C72" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H72" s="9"/>
     </row>
     <row r="73" s="5" customFormat="1" spans="1:8">
       <c r="A73" s="5">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
@@ -3601,7 +3608,7 @@
     </row>
     <row r="74" s="6" customFormat="1" spans="1:8">
       <c r="A74" s="6">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>11</v>
@@ -3609,7 +3616,7 @@
       <c r="C74" s="10"/>
       <c r="D74" s="12"/>
       <c r="E74" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
@@ -3617,50 +3624,50 @@
     </row>
     <row r="75" s="5" customFormat="1" spans="1:8">
       <c r="A75" s="5">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>187</v>
+        <v>20</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" s="5" customFormat="1" spans="1:8">
+    <row r="76" s="6" customFormat="1" spans="1:8">
       <c r="A76" s="6">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
+      <c r="D76" s="12"/>
       <c r="E76" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" s="6" customFormat="1" spans="1:8">
+    <row r="77" s="5" customFormat="1" spans="1:8">
       <c r="A77" s="5">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>188</v>
+        <v>15</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
@@ -3669,7 +3676,7 @@
     </row>
     <row r="78" s="5" customFormat="1" spans="1:8">
       <c r="A78" s="6">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>11</v>
@@ -3677,7 +3684,7 @@
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
@@ -3685,81 +3692,81 @@
     </row>
     <row r="79" s="6" customFormat="1" spans="1:8">
       <c r="A79" s="5">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" s="6" customFormat="1" spans="1:8">
+    <row r="80" s="5" customFormat="1" spans="1:8">
       <c r="A80" s="6">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>193</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10">
+        <v>4</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
       <c r="H80" s="10"/>
     </row>
     <row r="81" s="6" customFormat="1" spans="1:8">
       <c r="A81" s="5">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9">
-        <v>1</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
     </row>
     <row r="82" s="6" customFormat="1" spans="1:8">
       <c r="A82" s="6">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
+      <c r="F82" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>190</v>
+      </c>
       <c r="H82" s="10"/>
     </row>
     <row r="83" s="6" customFormat="1" spans="1:8">
       <c r="A83" s="5">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>11</v>
@@ -3767,56 +3774,93 @@
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" s="5" customFormat="1" spans="1:8">
+    <row r="84" s="6" customFormat="1" spans="1:8">
       <c r="A84" s="6">
+        <v>81</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+    </row>
+    <row r="85" s="6" customFormat="1" spans="1:8">
+      <c r="A85" s="5">
+        <v>82</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9">
+        <v>4</v>
+      </c>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+    </row>
+    <row r="86" s="5" customFormat="1" spans="1:8">
+      <c r="A86" s="6">
         <v>83</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B86" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="H84" s="9"/>
-    </row>
-    <row r="85" s="5" customFormat="1" spans="1:8">
-      <c r="A85" s="5">
+      <c r="C86" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H86" s="9"/>
+    </row>
+    <row r="87" s="5" customFormat="1" spans="1:8">
+      <c r="A87" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B87" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10">
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10">
         <v>4</v>
       </c>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77 B1:B76 B78:B79 B80:B83 B84:B85 B86:B1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 B4:B13 C7:C9">
+      <formula1>[1]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79 B1:B3 B14:B78 B80:B81 B82:B85 B86:B87 B88:B1048576">
       <formula1>DataList!$C$2:$C$120</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C77 C1:C76 C78:C79 C80:C83 C84:C85 C86:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79 C1:C3 C14:C78 C80:C81 C82:C85 C86:C87 C88:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
   </dataValidations>
@@ -3847,7 +3891,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3855,20 +3899,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -3876,23 +3920,23 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -3900,487 +3944,487 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="3:3">
